--- a/Répartition/Gantt Précis.xlsx
+++ b/Répartition/Gantt Précis.xlsx
@@ -203,9 +203,6 @@
     <t>DD</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>Matrice DF</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Sauvegarde SS</t>
+  </si>
+  <si>
+    <t>DF Option</t>
   </si>
 </sst>
 </file>
@@ -576,10 +576,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="B2:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1063,22 +1063,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1116,12 +1116,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="15">
         <v>2</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="15">
         <v>3</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="15">
         <v>4</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="17">
         <v>5</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="15">
         <v>6</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="15">
         <v>6</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="15">
         <v>7</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="15">
         <v>7</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="15">
         <v>7</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="15">
         <v>8</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="15">
         <v>8</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="15">
         <v>4</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="15">
         <v>6</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="15">
         <v>8</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="15">
         <v>9</v>
